--- a/resources/chunks/общая.xlsx
+++ b/resources/chunks/общая.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="13935" windowHeight="7395" tabRatio="417"/>
@@ -9,8 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -993,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="BK32" sqref="BK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1"/>
